--- a/masters.xlsx
+++ b/masters.xlsx
@@ -1,23 +1,224 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aitorjara/Documents/GitHub/machine_learning_shared/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268D1F0F-A1AA-1041-AD2F-463BA9EC0326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="440" windowWidth="23620" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">db!$A$1:$J$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">db!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{7C02704A-D913-5347-AC87-E8E7DDA525FB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">TECNICOS:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">A Bachelor’s degree, or equivalent, corresponding to 180 ECTS credits, with a level in Mathematics and Computer Science equal to, or higher than, that of the following courses at KTH:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">SF1624 Algebra and geometry
+SF1625 Calculus in one variable
+SF1626 Calculus in several variables
+SF1901 Probability theory and statistics
+DD1337 Programming
+DD1338 Algorithms and Data Structures
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">IDIOMA (AITOR SOLO):
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">TOEFL Paper-based: Score of 4.5 (scale 1-6) in written test, total score of 575.
+TOEFL ITP is not accepted.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">TOEFL iBT internet-based: Score of 20 (scale 0-30) in written test, total score of 90
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">IELTS Academic: A minimum overall mark of 6.5, with no section lower than 5.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Cambridge ESOL: Cambridge English: Advanced (CAE) Certificate in Advanced English or Cambridge English: Proficiency (CPE) (Certificate of Proficiency in English)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Michigan English Language Assessment Battery (MELAB): Minimum score of 90
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">University of Michigan, ECPE (Examination for the certificate of Proficiency in English)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Pearson PTE Academic: Score of 62 (writing 61)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
   <si>
     <t>Title</t>
   </si>
@@ -263,16 +464,19 @@
   </si>
   <si>
     <t>Aalto (Helsinki)</t>
+  </si>
+  <si>
+    <t>Requisites</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +495,26 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -321,7 +545,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
@@ -332,8 +556,8 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,12 +566,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -389,7 +616,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,9 +649,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,6 +701,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,25 +893,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
@@ -664,25 +926,28 @@
         <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -695,26 +960,26 @@
       <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -727,23 +992,23 @@
       <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
         <v>600</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -756,23 +1021,23 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
         <v>600</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -785,23 +1050,23 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -814,23 +1079,23 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -843,23 +1108,23 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
         <v>11000</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -872,23 +1137,23 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -901,23 +1166,23 @@
       <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
         <v>8500</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -930,23 +1195,23 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -959,23 +1224,23 @@
       <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>4</v>
       </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -988,23 +1253,23 @@
       <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1017,23 +1282,23 @@
       <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>81</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>4</v>
       </c>
-      <c r="G13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1046,23 +1311,23 @@
       <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>60</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>21</v>
       </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
         <v>7200</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1075,23 +1340,23 @@
       <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>63</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>21</v>
       </c>
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
         <v>30000</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1104,26 +1369,26 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>66</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
         <v>7000</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1136,26 +1401,26 @@
       <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>71</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>21</v>
       </c>
-      <c r="G17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
         <v>13000</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1168,26 +1433,26 @@
       <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>63</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>21</v>
       </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
         <v>11000</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1200,51 +1465,52 @@
       <c r="D19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>77</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>4</v>
       </c>
-      <c r="G19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
         <v>2000</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J19">
-    <sortState ref="A2:I17">
+  <autoFilter ref="A1:K19" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:J17">
       <sortCondition ref="A1:A9"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1"/>
-    <hyperlink ref="J7" r:id="rId2"/>
-    <hyperlink ref="J9" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="J4" r:id="rId5"/>
-    <hyperlink ref="J2" r:id="rId6"/>
-    <hyperlink ref="J5" r:id="rId7"/>
-    <hyperlink ref="J8" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="J11" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="J14" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
-    <hyperlink ref="J16" r:id="rId15"/>
-    <hyperlink ref="J17" r:id="rId16" location="course-profile"/>
-    <hyperlink ref="J18" r:id="rId17"/>
-    <hyperlink ref="J19" r:id="rId18"/>
+    <hyperlink ref="K6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K17" r:id="rId16" location="course-profile" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId19"/>
 </worksheet>
 </file>
--- a/masters.xlsx
+++ b/masters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aitorjara/Documents/GitHub/machine_learning_shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268D1F0F-A1AA-1041-AD2F-463BA9EC0326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713F6FBD-CD34-584C-89FB-9BBF8A5EC9D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="440" windowWidth="23620" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="440" windowWidth="23840" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
@@ -72,9 +73,72 @@
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">SF1624 Algebra and geometry
-SF1625 Calculus in one variable
-SF1626 Calculus in several variables
-SF1901 Probability theory and statistics
+SF1625 Calculus in one variable </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">(QUIZÁ CON CALCULO I ES SUFICIENTE)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">SF1626 Calculus in several variables </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(QUIZA CON CALCULO I ES SUFICIENTE)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+SF1901 Probability theory and statistics </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(QUIZÁ SE PODRIA CONVALIDAR)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
 DD1337 Programming
 DD1338 Algorithms and Data Structures
 </t>
@@ -103,6 +167,7 @@
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
@@ -209,6 +274,275 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{7A884086-9AB7-7848-84A5-EE071C68DE3D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TECNICO:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">A 2.2 in Computer Science, Computer Games, Electronic and Electrical Engineering or Mathematics.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">At least 50% of Undergraduate Academic Modules must include computer science, electronic engineering, mathematics, engineering. In additional at least one of these modules should be a programming module.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MITAD DE LAS ASIGNATURAS DE INGENIERIA.... ES DECIR, CIAO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{46355CFF-E72A-BB4A-AE1B-20E61556C3DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TECNICO:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">To meet the entry requirements for master's level studies, you must have been awarded a bachelor's degree (equivalent to a Swedish kandidatexamen) from an internationally recognised university.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Bachelor's degree equivalent to a Swedish Kandidatexamen within statistics, mathematics, applied mathematics, computer sicence, engineering or a similar degree. Courses in calculus and linear algebra, statistics and programming are also required.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ESTAMOS FUERA DEL TODO 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">IDIOMAS:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>IELTS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> (Academic modules) with an overall mark of 6.5, and no section below 5.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>TOEFL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> paper-based score of 4.5 (scale 1-6) in written test, with a total score of 575
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>TOEFL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> internet-based score of 20 (scale 0-30) in written test, with a total score of 90. Note - TOEFL Examinee Score Records are not accepted. All TOEFL tests must be sent directly from Educational Testing Service (ETS).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AUNQUE NO LO PONGA, EN TU CASO (IGOR) NO CREO QUE LO NECESITEN XD
 </t>
         </r>
       </text>
@@ -218,7 +552,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Title</t>
   </si>
@@ -467,6 +801,9 @@
   </si>
   <si>
     <t>Requisites</t>
+  </si>
+  <si>
+    <t>IGOR</t>
   </si>
 </sst>
 </file>
@@ -476,7 +813,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,8 +856,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +909,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2B6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,12 +939,21 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -562,6 +962,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFF2B6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -896,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1079,6 +1484,7 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
+      <c r="E6" s="7"/>
       <c r="F6" t="s">
         <v>40</v>
       </c>
@@ -1108,6 +1514,9 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
+      <c r="E7" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F7" t="s">
         <v>36</v>
       </c>
@@ -1137,6 +1546,9 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F8" t="s">
         <v>31</v>
       </c>
@@ -1166,6 +1578,7 @@
       <c r="D9" t="s">
         <v>32</v>
       </c>
+      <c r="E9" s="6"/>
       <c r="F9" t="s">
         <v>33</v>
       </c>
@@ -1195,6 +1608,7 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
+      <c r="E10" s="6"/>
       <c r="F10" t="s">
         <v>46</v>
       </c>
@@ -1224,6 +1638,7 @@
       <c r="D11" t="s">
         <v>37</v>
       </c>
+      <c r="E11" s="5"/>
       <c r="F11" t="s">
         <v>38</v>
       </c>
@@ -1253,6 +1668,7 @@
       <c r="D12" t="s">
         <v>37</v>
       </c>
+      <c r="E12" s="5"/>
       <c r="F12" t="s">
         <v>51</v>
       </c>
@@ -1282,6 +1698,7 @@
       <c r="D13" t="s">
         <v>55</v>
       </c>
+      <c r="E13" s="5"/>
       <c r="F13" t="s">
         <v>81</v>
       </c>
@@ -1311,6 +1728,7 @@
       <c r="D14" t="s">
         <v>59</v>
       </c>
+      <c r="E14" s="5"/>
       <c r="F14" t="s">
         <v>60</v>
       </c>
@@ -1340,6 +1758,7 @@
       <c r="D15" t="s">
         <v>32</v>
       </c>
+      <c r="E15" s="5"/>
       <c r="F15" t="s">
         <v>63</v>
       </c>
@@ -1369,6 +1788,7 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
+      <c r="E16" s="5"/>
       <c r="F16" t="s">
         <v>66</v>
       </c>
@@ -1401,6 +1821,7 @@
       <c r="D17" t="s">
         <v>32</v>
       </c>
+      <c r="E17" s="5"/>
       <c r="F17" t="s">
         <v>71</v>
       </c>
@@ -1433,6 +1854,7 @@
       <c r="D18" t="s">
         <v>32</v>
       </c>
+      <c r="E18" s="5"/>
       <c r="F18" t="s">
         <v>63</v>
       </c>
@@ -1465,6 +1887,7 @@
       <c r="D19" t="s">
         <v>76</v>
       </c>
+      <c r="E19" s="5"/>
       <c r="F19" t="s">
         <v>77</v>
       </c>

--- a/masters.xlsx
+++ b/masters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aitorjara/Documents/GitHub/machine_learning_shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713F6FBD-CD34-584C-89FB-9BBF8A5EC9D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC2B212-D9B9-4147-A83A-3025291FFFB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="440" windowWidth="23840" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,7 +552,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
   <si>
     <t>Title</t>
   </si>
@@ -804,6 +804,9 @@
   </si>
   <si>
     <t>IGOR</t>
+  </si>
+  <si>
+    <t>AITOR</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -909,18 +912,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2B6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +930,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -948,10 +939,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -964,6 +952,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF77FF90"/>
+      <color rgb="FFFF6866"/>
       <color rgb="FFFFF2B6"/>
     </mruColors>
   </colors>
@@ -1301,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1365,6 +1355,9 @@
       <c r="D2" t="s">
         <v>34</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F2" t="s">
         <v>41</v>
       </c>
@@ -1397,6 +1390,9 @@
       <c r="D3" t="s">
         <v>37</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F3" t="s">
         <v>38</v>
       </c>
@@ -1426,6 +1422,9 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
+      <c r="E4" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F4" t="s">
         <v>38</v>
       </c>
@@ -1455,6 +1454,9 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F5" t="s">
         <v>35</v>
       </c>
@@ -1484,7 +1486,9 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
       <c r="F6" t="s">
         <v>40</v>
       </c>
@@ -1514,7 +1518,7 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F7" t="s">
@@ -1546,7 +1550,7 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F8" t="s">
@@ -1578,7 +1582,9 @@
       <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
       <c r="F9" t="s">
         <v>33</v>
       </c>
@@ -1608,7 +1614,9 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
       <c r="F10" t="s">
         <v>46</v>
       </c>
@@ -1638,7 +1646,9 @@
       <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="F11" t="s">
         <v>38</v>
       </c>
@@ -1668,7 +1678,9 @@
       <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="F12" t="s">
         <v>51</v>
       </c>
@@ -1698,7 +1710,9 @@
       <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="F13" t="s">
         <v>81</v>
       </c>
@@ -1728,7 +1742,9 @@
       <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="F14" t="s">
         <v>60</v>
       </c>
@@ -1758,7 +1774,9 @@
       <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="F15" t="s">
         <v>63</v>
       </c>
@@ -1788,7 +1806,9 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="F16" t="s">
         <v>66</v>
       </c>
@@ -1821,7 +1841,9 @@
       <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="F17" t="s">
         <v>71</v>
       </c>
@@ -1854,7 +1876,9 @@
       <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="F18" t="s">
         <v>63</v>
       </c>
@@ -1887,7 +1911,9 @@
       <c r="D19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="F19" t="s">
         <v>77</v>
       </c>
@@ -1913,6 +1939,16 @@
       <sortCondition ref="A1:A9"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="E2:E19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF6866"/>
+        <color rgb="FF77FF90"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/masters.xlsx
+++ b/masters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aitorjara/Documents/GitHub/machine_learning_shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC2B212-D9B9-4147-A83A-3025291FFFB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F713C3D-AFD8-B345-AD0A-AA930439ED7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="440" windowWidth="23840" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,29 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">(QUIZÁ CON CALCULO I ES SUFICIENTE)
+          <t>(IGOR</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> CONVALIDADO)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -106,7 +128,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>(QUIZA CON CALCULO I ES SUFICIENTE)</t>
+          <t>(IGOR CONVALIDADO?)</t>
         </r>
         <r>
           <rPr>
@@ -139,7 +161,39 @@
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
-DD1337 Programming
+DD1337 Programming </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(QUIZA</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> SE PODRIA CONVALIDAR)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
 DD1338 Algorithms and Data Structures
 </t>
         </r>
@@ -1292,7 +1346,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/masters.xlsx
+++ b/masters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aitorjara/Documents/GitHub/machine_learning_shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F713C3D-AFD8-B345-AD0A-AA930439ED7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DFF146-0F7D-B14F-BC39-5CCEEC62E258}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="440" windowWidth="23840" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">TECNICOS:
 </t>
@@ -48,18 +47,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">A Bachelor’s degree, or equivalent, corresponding to 180 ECTS credits, with a level in Mathematics and Computer Science equal to, or higher than, that of the following courses at KTH:
 </t>
@@ -70,52 +67,36 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">SF1624 Algebra and geometry
-SF1625 Calculus in one variable </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(IGOR</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> CONVALIDADO)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">SF1625 Calculus in one variable </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(IGOR CONVALIDADO)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">SF1626 Calculus in several variables </t>
         </r>
@@ -126,7 +107,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>(IGOR CONVALIDADO?)</t>
         </r>
@@ -136,19 +116,26 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-SF1901 Probability theory and statistics </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">SF1901 Probability theory and statistics </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>(QUIZÁ SE PODRIA CONVALIDAR)</t>
         </r>
@@ -158,75 +145,76 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-DD1337 Programming </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(QUIZA</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> SE PODRIA CONVALIDAR)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-DD1338 Algorithms and Data Structures
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">DD1337 Programming </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(QUIZA SE PODRIA CONVALIDAR)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">DD1338 Algorithms and Data Structures
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">IDIOMA (AITOR SOLO):
 </t>
@@ -237,30 +225,36 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">TOEFL Paper-based: Score of 4.5 (scale 1-6) in written test, total score of 575.
-TOEFL ITP is not accepted.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TOEFL ITP is not accepted.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">TOEFL iBT internet-based: Score of 20 (scale 0-30) in written test, total score of 90
 </t>
@@ -271,7 +265,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">IELTS Academic: A minimum overall mark of 6.5, with no section lower than 5.5
 </t>
@@ -282,7 +275,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Cambridge ESOL: Cambridge English: Advanced (CAE) Certificate in Advanced English or Cambridge English: Proficiency (CPE) (Certificate of Proficiency in English)
 </t>
@@ -293,7 +285,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Michigan English Language Assessment Battery (MELAB): Minimum score of 90
 </t>
@@ -304,7 +295,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">University of Michigan, ECPE (Examination for the certificate of Proficiency in English)
 </t>
@@ -315,7 +305,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Pearson PTE Academic: Score of 62 (writing 61)
 </t>
@@ -362,7 +351,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">A 2.2 in Computer Science, Computer Games, Electronic and Electrical Engineering or Mathematics.
 </t>
@@ -373,7 +361,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">At least 50% of Undergraduate Academic Modules must include computer science, electronic engineering, mathematics, engineering. In additional at least one of these modules should be a programming module.
 </t>
@@ -431,7 +418,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">To meet the entry requirements for master's level studies, you must have been awarded a bachelor's degree (equivalent to a Swedish kandidatexamen) from an internationally recognised university.
 </t>
@@ -442,18 +428,16 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Bachelor's degree equivalent to a Swedish Kandidatexamen within statistics, mathematics, applied mathematics, computer sicence, engineering or a similar degree. Courses in calculus and linear algebra, statistics and programming are also required.
 </t>
@@ -464,19 +448,17 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ESTAMOS FUERA DEL TODO 
 </t>
@@ -519,7 +501,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>IELTS</t>
         </r>
@@ -529,7 +510,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> (Academic modules) with an overall mark of 6.5, and no section below 5.5
 </t>
@@ -541,7 +521,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>TOEFL</t>
         </r>
@@ -551,7 +530,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> paper-based score of 4.5 (scale 1-6) in written test, with a total score of 575
 </t>
@@ -563,7 +541,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>TOEFL</t>
         </r>
@@ -573,7 +550,6 @@
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> internet-based score of 20 (scale 0-30) in written test, with a total score of 90. Note - TOEFL Examinee Score Records are not accepted. All TOEFL tests must be sent directly from Educational Testing Service (ETS).
 </t>
@@ -598,6 +574,1484 @@
           </rPr>
           <t xml:space="preserve">AUNQUE NO LO PONGA, EN TU CASO (IGOR) NO CREO QUE LO NECESITEN XD
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{DA610A62-C8FC-6648-AAB6-746009910A1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">TECNICO: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Bachelor of Science</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t> (or equivalent)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t> in Statistics or Informatics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> or related disciplines (at least 180 ECTS or equivalent).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Excellent knowledge in Informatics and Statistics.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> Applicants need to provide evidence of knowledge in the following fields:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Statistical Science and Data-Based Modelling: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This includes, in particular, statistics and topics such as data mining, probability theory, and machine learning (at least 30 ECTS or equivalent). </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Average Grade 2)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Computer Science and Computational Methods: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This includes, in particular, data structures and algorithms, database systems, programming principles and practice, software engineering (at least 30 ECTS or equivalent). </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Average Grade 3)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Overall Average Grade</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t> must be </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>better than 1.5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>. The </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>overall average grade</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t> is composed of (1) </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Average Grade 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: the </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>average grade from the best performance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t> (equivalent to </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>150 ECTS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>), (2)</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t> Average Grade 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>, and (3) </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Average Grade 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ESTAMOS</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> FUERA
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>IDIOMA (NO APLICA):</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Proficiency in English: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">at least B2 CEFR (or equivalent); or English university entrance qualification; or first degree in English.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{D740A615-C814-F04E-953E-63CFB260894F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">TECNICO:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Admission Requirements:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Undergraduate degree with at least 48 ECTS in data science-related courses
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">BAD
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Selection Criteria:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Overall grade of undergraduate degree BAD</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Previous experience in data science BAD</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> (IGOR  QUIZA?)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Semester abroad GOOD
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ESTAMOS</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> FUERA</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">IDIOMA (NO APLICA)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{42383ACF-8725-BE4F-BDFF-F37A11B34361}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">TECNICO
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">The joint admission criteria to the Computer, Communication and Information Sciences programme is a high quality Bachelor’s degree in computer science, software engineering, communications engineering, or electrical engineering. Excellent candidates with degrees in other fields such as information systems, engineering, natural sciences, mathematics or physics will be considered if they have sufficient studies and proven skills and knowledge according to the requirements.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>required background</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t> for the </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Machine Learning, Data Science and Artificial Intelligence </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">major includes sufficient skills in:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">mathematics (particularly important are linear algebra, calculus, probability theory, statistics, and discrete mathematics)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">computer science (in particular good programming skills, data structures and algorithms. Also other courses, such as: data bases, theory of computing, computer networks, software engineering)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ESTAMOS FUERA....</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{53F88C5D-A49F-0C4D-84EF-9CB93D358A61}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">The programme is designed to provide graduates of Computer Science and closely related areas with in-depth knowledge and skills in the emerging growth area of Data Analytics. It includes topics such as large-scale data analytics, advanced machine learning and data-mining, information retrieval, natural language processing and web mining. It also includes foundational modules in topics such as statistics, probability and programming for data analytics. Students on the programme further deepen their knowledge of Data Analytics by working on a project either in conjunction with a research group or with an industry partner.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>INFO ESCASA, PERO EN PRINCIPIO CS ORIENTED</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{EA9B7ED9-A147-F54F-AB88-2D67358E5094}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">TECNICO
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Candidates must have:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>obtained either a honours level 8 primary degree (minium 2H1 honours or equivalent) in computer science or mathematical sciences </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>or</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">an honours level 8 primary degree (minium 2H1 honours or equivalent) with a strong numerate content (e.g. engineering, finance, physics, biosciences or economics). In such cases the programme team must be satisfied that the numerate content is sufficient for entry to the programme and that applicants have an aggregate grade of a 2H1 in appropriate modules. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>UN 7 Y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> PASARLES EL PROGRAMA PARA MIRAR EL QUANTITATIVE</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Applicants who do not meet the above standard entry requirements will also be considered if they have an undergraduate degree (at Level 8) and a minimum of 5 years verifiable relevant industrial experience. O </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>UN 7 SIN QUANTITATIVE</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> Y 5 AÑOS DE EXP.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">LIADO PERO ALGO SE PUEDE HACER
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>IDIOMAS</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> (SOLO AITOR)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>IELTS 6.5 AGREGADO; 6.0 &lt; INDIVIDUAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Prof. Barry O'Sullivan
+</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>b.osullivan@cs.ucc.ie</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>021 420 5951</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{4AD4AB51-6D9A-7D46-83D1-3162123328CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">TECNICO
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">We require a First or strong Upper Second class honours degree, or the overseas equivalent, in Computer Science, or in a joint degree with at least 50% Computer Science content. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Applicants with extensive Computer Science industrial experience and a good honours degree in Computer Science, or its overseas equivalent, may also be considered for admission.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">IGOR QUIZA
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">We require that all applicants have a strong background in Computer Science reflected, for example, in solid programming and software development skills.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>pgt-compsci@manchester.ac.uk</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{9B83FB4E-3F9D-C34F-9616-CD6F8FC7C2E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">TECNICO
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Entry requirements
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">An upper second class degree is normally required, usually in electronic engineering, computer science, mathematics or a related discipline. Students with a good lower second class degree may be considered on an individual basis. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Applicants with unrelated degrees will be considered if there is evidence of equivalent industrial experience.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">For international students we require English language qualifications IELTS 6.5 OR TOEFL 92 (internet based).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>NO</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> ME CUADRA MUCHO,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> SI EL TIO ESE DE ADE ENTRÓ SIN</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> EXPERIENCIA Y ENCIMA DE ADE.... SEGURAMENTE TENIA BUENAS NOTAS SOLAMENTE
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>eecs-msc-enquiries@qmul.ac.uk</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{FABC681E-2858-4140-A11C-DCA0641BEDEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">MIRAR LA WEB DIRECTAMENTE. EL PROGRAMA PRE-MASTER PARA NUESTROS BACHELORS SOLO LO OFRECEN A HOLANDESES.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Mail:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t> </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>study@uu.nl</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Tel: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>+ 31 30 253 2670  (Monday - Friday: 9 am – 17 pm)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>WhatsApp: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>+ 31 64 16 34378 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>- for the use of WhatsApp only! </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Monday to Friday: 9 am - 5 pm)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t> - On a smartphone? </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <u/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Start chatting immediately!</t>
         </r>
       </text>
     </comment>
@@ -606,7 +2060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
   <si>
     <t>Title</t>
   </si>
@@ -855,12 +2309,6 @@
   </si>
   <si>
     <t>Requisites</t>
-  </si>
-  <si>
-    <t>IGOR</t>
-  </si>
-  <si>
-    <t>AITOR</t>
   </si>
 </sst>
 </file>
@@ -870,7 +2318,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,20 +2348,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
@@ -928,22 +2362,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -954,6 +2372,111 @@
       <color rgb="FF7030A0"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1346,7 +2869,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1409,9 +2932,7 @@
       <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" t="s">
         <v>41</v>
       </c>
@@ -1444,9 +2965,7 @@
       <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" t="s">
         <v>38</v>
       </c>
@@ -1476,9 +2995,7 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" t="s">
         <v>38</v>
       </c>
@@ -1508,9 +3025,7 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" t="s">
         <v>35</v>
       </c>
@@ -1541,7 +3056,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="6">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1572,9 +3087,7 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="E7" s="6"/>
       <c r="F7" t="s">
         <v>36</v>
       </c>
@@ -1604,9 +3117,7 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="E8" s="6"/>
       <c r="F8" t="s">
         <v>31</v>
       </c>
@@ -1637,7 +3148,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
@@ -1669,7 +3180,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>46</v>
@@ -1700,8 +3211,8 @@
       <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>84</v>
+      <c r="E11" s="6">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -1732,8 +3243,8 @@
       <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>84</v>
+      <c r="E12" s="6">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>51</v>
@@ -1764,8 +3275,8 @@
       <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>84</v>
+      <c r="E13" s="6">
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>81</v>
@@ -1796,8 +3307,8 @@
       <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>84</v>
+      <c r="E14" s="6">
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>60</v>
@@ -1815,7 +3326,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1828,9 +3339,7 @@
       <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="E15" s="6"/>
       <c r="F15" t="s">
         <v>63</v>
       </c>
@@ -1860,8 +3369,8 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>84</v>
+      <c r="E16" s="6">
+        <v>30</v>
       </c>
       <c r="F16" t="s">
         <v>66</v>
@@ -1895,8 +3404,8 @@
       <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>84</v>
+      <c r="E17" s="6">
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>71</v>
@@ -1930,8 +3439,8 @@
       <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>84</v>
+      <c r="E18" s="6">
+        <v>50</v>
       </c>
       <c r="F18" t="s">
         <v>63</v>
@@ -1965,8 +3474,8 @@
       <c r="D19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>84</v>
+      <c r="E19" s="6">
+        <v>30</v>
       </c>
       <c r="F19" t="s">
         <v>77</v>

--- a/masters.xlsx
+++ b/masters.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aitorjara/Documents/GitHub/machine_learning_shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DFF146-0F7D-B14F-BC39-5CCEEC62E258}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6720B7-C606-7748-ABE0-F23C301A9B29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="440" windowWidth="23840" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="440" windowWidth="25360" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">db!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">db!$A$1:$L$19</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,6 +28,596 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{29E52F03-894E-934F-8E1C-BE8B29BB4D02}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">To be eligible for admission to the Master's program in Data Science, applicants must:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Hold a Bachelor’s degree in computer science, mathematics, electrical engineering, physics, mechanical engineering, or a related field.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Must have a strong background in mathematics, programming, and algorithms.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Y MIRAR WEB, PIDEN EXPEDIENTE EXCELENTE Y EL TIPICO BS....ASI QUE NADA
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{4E0253AB-F9C9-6647-B55D-D3F04F7FAF8B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Prerequisites
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">The master program data engineering and analytics is designed for students with a bachelor's degree in Informatics or Mathematics with a minor Informatics (or similar), which aim to specialize in Data Engineering and Analytics. Applicants need to have elementary skills in Informatics, especially foundations of Informatics and programming of algorithms and databases. In the application process, the applicant's transcript of record is matched against a predetermined catalogue. In case there are important core lectures missing, these can be added as mandatory courses to the applicant's curriculum. In case more than 30 ECTS are missing, admission is not possible. Also, proficiency in English is required. Furthermore, students that did not provide proof of proficiency in German before enrollment will receive an obligation to complete at least one module that provides integrative knowledge of the German language. Voluntarily completed extracurricular courses, for example German courses at the TUM language center will be recognized.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">NADA....
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{52BB31D4-776C-BF4B-91A2-FE3A693CB92F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Subject requirements
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>In order to commence the Mathematics in Data Science Master’s program at TUM, a recognized university degree in Mathematics, Informatics (with a minor in Mathematics) or a comparable study program is required. Those who are interested should refer to the program-specific </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Examination Regulations </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>under "Grundlagen aus dem Bachelorstudiengang Mathematik der TUM” [“Foundations for the TUM Bachelor's program in Mathematics]</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>and to the </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Attachment 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">, to find out which competencies must be proven in detail.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Subject requirements
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>In order to commence the Mathematics in Data Science Master’s program at TUM, a recognized university degree in Mathematics, Informatics (with a minor in Mathematics) or a comparable study program is required. Those who are interested should refer to the program-specific </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Examination Regulations </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>under "Grundlagen aus dem Bachelorstudiengang Mathematik der TUM” [“Foundations for the TUM Bachelor's program in Mathematics]</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>and to the </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Attachment 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">, to find out which competencies must be proven in detail.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Formal requirements
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Students from abroad: GRE Test or Gate Test
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Applicants who acquired their university degree in Bangladesh, China, India, Iran, or Pakistan must provide proof of a sufficient pass mark in the admission test GRE (Graduate Record Examination) - Quantitative reasoning: 154, Analytical writing: 3,0. Institutional Code: 7806 Department 5199.</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Alternatively, students can apply using the associated score card for the Indian GATE-Test (Mathematics).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Information
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>You can find out if special requirements apply to your country </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>here</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>. For questions please contact: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>studium (at) tum.de</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Language Requirements
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Proof of English language skills
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">For the "Mathematics in Data Science" Master’s program at TUM you must provide evidence of adequate knowledge of the English language. Students whose official language of instruction during their undergraduate studies was not English must demonstrate proficiency in the form of an acknowledged language test such as
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Test of English as a Foreign Language (TOEFL) (at least 88 points on the TOEFL iBT),
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">International English Language Testing System (IELTS) (at least 6.5 points),
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">or Cambridge Main Suite of English Examinations.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">NADA
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{AD5F001E-903A-AB46-84C7-15BF406FC448}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Only candidates with excellent academic records and references have good chances to be accepted. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Also, are not eligible candidates who already hold a Master’s degree, or equivalent, in the field (or similar field) of the program for which they would apply.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>student.services@epfl.ch</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">+41 (0)21 693 43 45
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">HASTA LUEGO...
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E6" authorId="0" shapeId="0" xr:uid="{7C02704A-D913-5347-AC87-E8E7DDA525FB}">
       <text>
         <r>
@@ -312,6 +902,268 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{0E02BB69-605E-1C4C-8B15-CCC6C5E1127E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Entry requirements
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">A 2:1 (hons) bachelor degree with a substantial numerate component. This may include </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">degrees in mathematics, statistics, economics, engineering, or a physical science subject.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>We accept a range of </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">international equivalent qualifications.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">ENTRE 6,5 - 7
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">English language requirements
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>IELTS 6.5 overall, with no less than 6.0 in all components. For other English qualifications, read </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>English language equivalent qualifications</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">.How to apply
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Application deadlines
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>31 July 2019</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> - International applicants
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>31 August 2019</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> - Home/EU applicants
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>School of Mathematics Admissions Team</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Email: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>maths-msc@leeds.ac.uk</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Telephone: +44 (0)113 343 0945</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{3353F291-CC43-3743-A5B8-6D76D9116074}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MIRAR WEB, SOLO CS Y CON MUCHOS REQUISITOS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -585,7 +1437,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">TECNICO: 
 </t>
@@ -596,7 +1447,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Bachelor of Science</t>
         </r>
@@ -605,7 +1455,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t> (or equivalent)</t>
         </r>
@@ -615,7 +1464,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t> in Statistics or Informatics</t>
         </r>
@@ -624,7 +1472,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> or related disciplines (at least 180 ECTS or equivalent).
 </t>
@@ -635,7 +1482,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Excellent knowledge in Informatics and Statistics.</t>
         </r>
@@ -644,7 +1490,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> Applicants need to provide evidence of knowledge in the following fields:
 </t>
@@ -655,7 +1500,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Statistical Science and Data-Based Modelling: </t>
         </r>
@@ -664,7 +1508,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>This includes, in particular, statistics and topics such as data mining, probability theory, and machine learning (at least 30 ECTS or equivalent). </t>
         </r>
@@ -674,7 +1517,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>(Average Grade 2)</t>
         </r>
@@ -684,28 +1526,25 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t>Computer Science and Computational Methods: </t>
         </r>
@@ -714,7 +1553,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>This includes, in particular, data structures and algorithms, database systems, programming principles and practice, software engineering (at least 30 ECTS or equivalent). </t>
         </r>
@@ -724,7 +1562,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>(Average Grade 3)</t>
         </r>
@@ -733,18 +1570,16 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t>Overall Average Grade</t>
         </r>
@@ -753,7 +1588,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t> must be </t>
         </r>
@@ -763,7 +1597,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>better than 1.5</t>
         </r>
@@ -772,7 +1605,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>. The </t>
         </r>
@@ -782,7 +1614,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>overall average grade</t>
         </r>
@@ -791,7 +1622,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t> is composed of (1) </t>
         </r>
@@ -801,7 +1631,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Average Grade 1</t>
         </r>
@@ -810,7 +1639,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>: the </t>
         </r>
@@ -820,7 +1648,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>average grade from the best performance</t>
         </r>
@@ -829,7 +1656,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t> (equivalent to </t>
         </r>
@@ -839,7 +1665,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>150 ECTS</t>
         </r>
@@ -848,7 +1673,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>), (2)</t>
         </r>
@@ -858,7 +1682,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t> Average Grade 2</t>
         </r>
@@ -867,7 +1690,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>, and (3) </t>
         </r>
@@ -877,7 +1699,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Average Grade 3</t>
         </r>
@@ -886,7 +1707,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">.
 </t>
@@ -896,81 +1716,55 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ESTAMOS</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> FUERA
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>IDIOMA (NO APLICA):</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">ESTAMOS FUERA
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">IDIOMA (NO APLICA):
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t>Proficiency in English: </t>
         </r>
@@ -979,7 +1773,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">at least B2 CEFR (or equivalent); or English university entrance qualification; or first degree in English.
 </t>
@@ -994,7 +1787,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">TECNICO:
 </t>
@@ -1005,18 +1797,16 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t>Admission Requirements:</t>
         </r>
@@ -1025,17 +1815,15 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">Undergraduate degree with at least 48 ECTS in data science-related courses
 </t>
@@ -1045,7 +1833,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">BAD
 </t>
@@ -1055,18 +1842,16 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t>Selection Criteria:</t>
         </r>
@@ -1075,73 +1860,33 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Overall grade of undergraduate degree BAD</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Previous experience in data science BAD</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> (IGOR  QUIZA?)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Overall grade of undergraduate degree BAD 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Previous experience in data science BAD (IGOR  QUIZA?)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">Semester abroad GOOD
 </t>
@@ -1151,59 +1896,35 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ESTAMOS</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> FUERA</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">ESTAMOS FUERA
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">IDIOMA (NO APLICA)
 </t>
@@ -1218,7 +1939,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">TECNICO
 </t>
@@ -1228,17 +1948,15 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">The joint admission criteria to the Computer, Communication and Information Sciences programme is a high quality Bachelor’s degree in computer science, software engineering, communications engineering, or electrical engineering. Excellent candidates with degrees in other fields such as information systems, engineering, natural sciences, mathematics or physics will be considered if they have sufficient studies and proven skills and knowledge according to the requirements.
 </t>
@@ -1248,17 +1966,15 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t>The </t>
         </r>
@@ -1268,7 +1984,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>required background</t>
         </r>
@@ -1277,7 +1992,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t> for the </t>
         </r>
@@ -1287,7 +2001,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Machine Learning, Data Science and Artificial Intelligence </t>
         </r>
@@ -1296,7 +2009,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">major includes sufficient skills in:
 </t>
@@ -1306,7 +2018,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">mathematics (particularly important are linear algebra, calculus, probability theory, statistics, and discrete mathematics)
 </t>
@@ -1316,7 +2027,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">computer science (in particular good programming skills, data structures and algorithms. Also other courses, such as: data bases, theory of computing, computer networks, software engineering)
 </t>
@@ -1350,7 +2060,6 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">The programme is designed to provide graduates of Computer Science and closely related areas with in-depth knowledge and skills in the emerging growth area of Data Analytics. It includes topics such as large-scale data analytics, advanced machine learning and data-mining, information retrieval, natural language processing and web mining. It also includes foundational modules in topics such as statistics, probability and programming for data analytics. Students on the programme further deepen their knowledge of Data Analytics by working on a project either in conjunction with a research group or with an industry partner.
 </t>
@@ -1386,7 +2095,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">TECNICO
 </t>
@@ -1396,17 +2104,15 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">Candidates must have:
 </t>
@@ -1416,7 +2122,6 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>obtained either a honours level 8 primary degree (minium 2H1 honours or equivalent) in computer science or mathematical sciences </t>
         </r>
@@ -1427,7 +2132,6 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>or</t>
         </r>
@@ -1436,17 +2140,15 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">an honours level 8 primary degree (minium 2H1 honours or equivalent) with a strong numerate content (e.g. engineering, finance, physics, biosciences or economics). In such cases the programme team must be satisfied that the numerate content is sufficient for entry to the programme and that applicants have an aggregate grade of a 2H1 in appropriate modules. </t>
         </r>
@@ -1456,37 +2158,15 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>UN 7 Y</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> PASARLES EL PROGRAMA PARA MIRAR EL QUANTITATIVE</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">UN 7 Y PASARLES EL PROGRAMA PARA MIRAR EL QUANTITATIVE
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">Applicants who do not meet the above standard entry requirements will also be considered if they have an undergraduate degree (at Level 8) and a minimum of 5 years verifiable relevant industrial experience. O </t>
         </r>
@@ -1496,29 +2176,8 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>UN 7 SIN QUANTITATIVE</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> Y 5 AÑOS DE EXP.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+          </rPr>
+          <t xml:space="preserve">UN 7 SIN QUANTITATIVE Y 5 AÑOS DE EXP.
 </t>
         </r>
         <r>
@@ -1558,28 +2217,16 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>IDIOMAS</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> (SOLO AITOR)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">IDIOMAS (SOLO AITOR)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t>IELTS 6.5 AGREGADO; 6.0 &lt; INDIVIDUAL</t>
         </r>
@@ -1588,7 +2235,6 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1608,7 +2254,6 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Prof. Barry O'Sullivan
 </t>
@@ -1619,7 +2264,6 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>b.osullivan@cs.ucc.ie</t>
         </r>
@@ -1628,7 +2272,6 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1639,7 +2282,6 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>021 420 5951</t>
         </r>
@@ -1648,7 +2290,6 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1663,7 +2304,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">TECNICO
 </t>
@@ -1673,17 +2313,15 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">We require a First or strong Upper Second class honours degree, or the overseas equivalent, in Computer Science, or in a joint degree with at least 50% Computer Science content. </t>
         </r>
@@ -1693,7 +2331,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Applicants with extensive Computer Science industrial experience and a good honours degree in Computer Science, or its overseas equivalent, may also be considered for admission.
 </t>
@@ -1704,18 +2341,16 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">IGOR QUIZA
 </t>
@@ -1725,17 +2360,15 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">We require that all applicants have a strong background in Computer Science reflected, for example, in solid programming and software development skills.
 </t>
@@ -1745,7 +2378,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1756,7 +2388,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>pgt-compsci@manchester.ac.uk</t>
         </r>
@@ -1765,7 +2396,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1780,7 +2410,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">TECNICO
 </t>
@@ -1790,17 +2419,15 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">Entry requirements
 </t>
@@ -1810,7 +2437,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">An upper second class degree is normally required, usually in electronic engineering, computer science, mathematics or a related discipline. Students with a good lower second class degree may be considered on an individual basis. </t>
         </r>
@@ -1820,7 +2446,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Applicants with unrelated degrees will be considered if there is evidence of equivalent industrial experience.
 </t>
@@ -1830,7 +2455,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">For international students we require English language qualifications IELTS 6.5 OR TOEFL 92 (internet based).
 </t>
@@ -1840,58 +2464,25 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>NO</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> ME CUADRA MUCHO,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> SI EL TIO ESE DE ADE ENTRÓ SIN</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> EXPERIENCIA Y ENCIMA DE ADE.... SEGURAMENTE TENIA BUENAS NOTAS SOLAMENTE
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">NO ME CUADRA MUCHO, SI EL TIO ESE DE ADE ENTRÓ SIN EXPERIENCIA Y ENCIMA DE ADE.... SEGURAMENTE TENIA BUENAS NOTAS SOLAMENTE
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t>eecs-msc-enquiries@qmul.ac.uk</t>
         </r>
@@ -1901,7 +2492,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1916,7 +2506,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">MIRAR LA WEB DIRECTAMENTE. EL PROGRAMA PRE-MASTER PARA NUESTROS BACHELORS SOLO LO OFRECEN A HOLANDESES.
 </t>
@@ -1927,29 +2516,26 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t>Mail:</t>
         </r>
@@ -1958,7 +2544,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t> </t>
         </r>
@@ -1968,7 +2553,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>study@uu.nl</t>
         </r>
@@ -1978,7 +2562,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Tel: </t>
         </r>
@@ -1987,7 +2570,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>+ 31 30 253 2670  (Monday - Friday: 9 am – 17 pm)</t>
         </r>
@@ -1997,7 +2579,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>WhatsApp: </t>
         </r>
@@ -2006,7 +2587,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>+ 31 64 16 34378 </t>
         </r>
@@ -2017,7 +2597,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>- for the use of WhatsApp only! </t>
         </r>
@@ -2026,7 +2605,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>(Monday to Friday: 9 am - 5 pm)</t>
         </r>
@@ -2037,7 +2615,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t> - On a smartphone? </t>
         </r>
@@ -2049,7 +2626,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Start chatting immediately!</t>
         </r>
@@ -2060,7 +2636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
   <si>
     <t>Title</t>
   </si>
@@ -2308,7 +2884,10 @@
     <t>Aalto (Helsinki)</t>
   </si>
   <si>
-    <t>Requisites</t>
+    <t>Requisites I</t>
+  </si>
+  <si>
+    <t>Requisites A</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2897,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2404,7 +2983,68 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2413,21 +3053,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2442,38 +3068,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="14"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -2866,10 +3462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2879,12 +3475,13 @@
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
@@ -2898,28 +3495,31 @@
         <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2932,27 +3532,30 @@
       <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" t="s">
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2965,24 +3568,27 @@
       <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" t="s">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>600</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2995,24 +3601,27 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" t="s">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>600</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3025,24 +3634,27 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" t="s">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3058,23 +3670,24 @@
       <c r="E6" s="6">
         <v>50</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3087,24 +3700,27 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" t="s">
+      <c r="E7" s="6">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>11000</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3117,24 +3733,27 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" t="s">
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3150,23 +3769,24 @@
       <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>8500</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3182,23 +3802,24 @@
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3214,23 +3835,24 @@
       <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>4</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3246,23 +3868,24 @@
       <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" t="s">
         <v>51</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>4</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3278,23 +3901,24 @@
       <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" t="s">
         <v>81</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>4</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3310,23 +3934,24 @@
       <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" t="s">
         <v>60</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>7200</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3340,23 +3965,24 @@
         <v>32</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" t="s">
         <v>63</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>30000</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3372,26 +3998,27 @@
       <c r="E16" s="6">
         <v>30</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" t="s">
         <v>66</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>7000</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3407,26 +4034,27 @@
       <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" t="s">
         <v>71</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>21</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>13000</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3442,26 +4070,27 @@
       <c r="E18" s="6">
         <v>50</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>21</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>11000</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3477,32 +4106,33 @@
       <c r="E19" s="6">
         <v>30</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" t="s">
         <v>77</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>4</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>2000</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K19" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:J17">
+  <autoFilter ref="A1:L19" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:K17">
       <sortCondition ref="A1:A9"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:E19">
+  <conditionalFormatting sqref="E2:F19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3513,24 +4143,24 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K17" r:id="rId16" location="course-profile" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L17" r:id="rId16" location="course-profile" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId19"/>

--- a/masters.xlsx
+++ b/masters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aitorjara/Documents/GitHub/machine_learning_shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6720B7-C606-7748-ABE0-F23C301A9B29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA04B639-BE71-FB41-BE26-9659F4F7FA0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="440" windowWidth="25360" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">To be eligible for admission to the Master's program in Data Science, applicants must:
 </t>
@@ -45,7 +44,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Hold a Bachelor’s degree in computer science, mathematics, electrical engineering, physics, mechanical engineering, or a related field.
 </t>
@@ -55,7 +53,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Must have a strong background in mathematics, programming, and algorithms.
 </t>
@@ -91,7 +88,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Prerequisites
 </t>
@@ -102,17 +98,15 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">The master program data engineering and analytics is designed for students with a bachelor's degree in Informatics or Mathematics with a minor Informatics (or similar), which aim to specialize in Data Engineering and Analytics. Applicants need to have elementary skills in Informatics, especially foundations of Informatics and programming of algorithms and databases. In the application process, the applicant's transcript of record is matched against a predetermined catalogue. In case there are important core lectures missing, these can be added as mandatory courses to the applicant's curriculum. In case more than 30 ECTS are missing, admission is not possible. Also, proficiency in English is required. Furthermore, students that did not provide proof of proficiency in German before enrollment will receive an obligation to complete at least one module that provides integrative knowledge of the German language. Voluntarily completed extracurricular courses, for example German courses at the TUM language center will be recognized.
 </t>
@@ -122,18 +116,16 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">NADA....
 </t>
@@ -148,7 +140,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Subject requirements
 </t>
@@ -158,27 +149,8 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>In order to commence the Mathematics in Data Science Master’s program at TUM, a recognized university degree in Mathematics, Informatics (with a minor in Mathematics) or a comparable study program is required. Those who are interested should refer to the program-specific </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Examination Regulations </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>under "Grundlagen aus dem Bachelorstudiengang Mathematik der TUM” [“Foundations for the TUM Bachelor's program in Mathematics]</t>
+          </rPr>
+          <t>In order to commence the Mathematics in Data Science Master’s program at TUM, a recognized university degree in Mathematics, Informatics (with a minor in Mathematics) or a comparable study program is required. Those who are interested should refer to the program-specific Examination Regulations under "Grundlagen aus dem Bachelorstudiengang Mathematik der TUM” [“Foundations for the TUM Bachelor's program in Mathematics]</t>
         </r>
         <r>
           <rPr>
@@ -186,7 +158,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t> </t>
         </r>
@@ -195,46 +166,25 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>and to the </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Attachment 3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">, to find out which competencies must be proven in detail.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">and to the Attachment 3, to find out which competencies must be proven in detail.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">Subject requirements
 </t>
@@ -244,27 +194,8 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>In order to commence the Mathematics in Data Science Master’s program at TUM, a recognized university degree in Mathematics, Informatics (with a minor in Mathematics) or a comparable study program is required. Those who are interested should refer to the program-specific </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Examination Regulations </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>under "Grundlagen aus dem Bachelorstudiengang Mathematik der TUM” [“Foundations for the TUM Bachelor's program in Mathematics]</t>
+          </rPr>
+          <t>In order to commence the Mathematics in Data Science Master’s program at TUM, a recognized university degree in Mathematics, Informatics (with a minor in Mathematics) or a comparable study program is required. Those who are interested should refer to the program-specific Examination Regulations under "Grundlagen aus dem Bachelorstudiengang Mathematik der TUM” [“Foundations for the TUM Bachelor's program in Mathematics]</t>
         </r>
         <r>
           <rPr>
@@ -272,7 +203,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t> </t>
         </r>
@@ -281,46 +211,25 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>and to the </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Attachment 3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">, to find out which competencies must be proven in detail.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">and to the Attachment 3, to find out which competencies must be proven in detail.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">Formal requirements
 </t>
@@ -331,7 +240,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Students from abroad: GRE Test or Gate Test
 </t>
@@ -341,7 +249,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Applicants who acquired their university degree in Bangladesh, China, India, Iran, or Pakistan must provide proof of a sufficient pass mark in the admission test GRE (Graduate Record Examination) - Quantitative reasoning: 154, Analytical writing: 3,0. Institutional Code: 7806 Department 5199.</t>
         </r>
@@ -351,7 +258,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t> </t>
         </r>
@@ -360,7 +266,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Alternatively, students can apply using the associated score card for the Indian GATE-Test (Mathematics).
 </t>
@@ -371,7 +276,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Information
 </t>
@@ -381,54 +285,16 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>You can find out if special requirements apply to your country </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>here</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>. For questions please contact: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>studium (at) tum.de</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">You can find out if special requirements apply to your country here. For questions please contact: studium (at) tum.de
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">Language Requirements
 </t>
@@ -439,7 +305,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Proof of English language skills
 </t>
@@ -449,7 +314,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">For the "Mathematics in Data Science" Master’s program at TUM you must provide evidence of adequate knowledge of the English language. Students whose official language of instruction during their undergraduate studies was not English must demonstrate proficiency in the form of an acknowledged language test such as
 </t>
@@ -459,7 +323,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Test of English as a Foreign Language (TOEFL) (at least 88 points on the TOEFL iBT),
 </t>
@@ -469,7 +332,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">International English Language Testing System (IELTS) (at least 6.5 points),
 </t>
@@ -479,7 +341,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">or Cambridge Main Suite of English Examinations.
 </t>
@@ -489,18 +350,16 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">NADA
 </t>
@@ -510,7 +369,15 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -524,7 +391,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Only candidates with excellent academic records and references have good chances to be accepted. </t>
         </r>
@@ -534,7 +400,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Also, are not eligible candidates who already hold a Master’s degree, or equivalent, in the field (or similar field) of the program for which they would apply.
 </t>
@@ -545,7 +410,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> 
 </t>
@@ -557,7 +421,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>student.services@epfl.ch</t>
         </r>
@@ -567,18 +430,16 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">+41 (0)21 693 43 45
 </t>
@@ -918,7 +779,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Entry requirements
 </t>
@@ -928,7 +788,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">A 2:1 (hons) bachelor degree with a substantial numerate component. This may include </t>
         </r>
@@ -938,7 +797,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">degrees in mathematics, statistics, economics, engineering, or a physical science subject.
 </t>
@@ -948,27 +806,16 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>We accept a range of </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">international equivalent qualifications.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">We accept a range of international equivalent qualifications.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">ENTRE 6,5 - 7
 </t>
@@ -978,17 +825,15 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">English language requirements
 </t>
@@ -998,45 +843,24 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>IELTS 6.5 overall, with no less than 6.0 in all components. For other English qualifications, read </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>English language equivalent qualifications</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">.How to apply
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">IELTS 6.5 overall, with no less than 6.0 in all components. For other English qualifications, read English language equivalent qualifications.How to apply
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">Application deadlines
 </t>
@@ -1047,7 +871,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>31 July 2019</t>
         </r>
@@ -1056,7 +879,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> - International applicants
 </t>
@@ -1067,7 +889,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>31 August 2019</t>
         </r>
@@ -1076,7 +897,6 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> - Home/EU applicants
 </t>
@@ -1096,54 +916,24 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>School of Mathematics Admissions Team</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Email: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>maths-msc@leeds.ac.uk</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">School of Mathematics Admissions Team
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Email: maths-msc@leeds.ac.uk
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t>Telephone: +44 (0)113 343 0945</t>
         </r>
@@ -2509,6 +2299,73 @@
           </rPr>
           <t xml:space="preserve">MIRAR LA WEB DIRECTAMENTE. EL PROGRAMA PRE-MASTER PARA NUESTROS BACHELORS SOLO LO OFRECEN A HOLANDESES.
 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">1 de Junio es deadline para empezar en septiembre
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t> </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>admissions-ai-master@uu.nl</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>. --&gt; es el corrdinador del programa, para elegibility</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> questions</t>
         </r>
         <r>
           <rPr>
@@ -2897,7 +2754,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3047,29 +2904,14 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
+      <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -3465,7 +3307,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3701,7 +3543,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" t="s">
@@ -3996,7 +3838,7 @@
         <v>59</v>
       </c>
       <c r="E16" s="6">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" t="s">
@@ -4068,7 +3910,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="6">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" t="s">

--- a/masters.xlsx
+++ b/masters.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aitorjara/Documents/GitHub/machine_learning_shared/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\machine_learning_shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA04B639-BE71-FB41-BE26-9659F4F7FA0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="440" windowWidth="25360" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="444" windowWidth="25356" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -19,22 +18,24 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">db!$A$1:$L$19</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{29E52F03-894E-934F-8E1C-BE8B29BB4D02}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">To be eligible for admission to the Master's program in Data Science, applicants must:
 </t>
@@ -44,6 +45,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Hold a Bachelor’s degree in computer science, mathematics, electrical engineering, physics, mechanical engineering, or a related field.
 </t>
@@ -53,6 +55,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Must have a strong background in mathematics, programming, and algorithms.
 </t>
@@ -80,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{4E0253AB-F9C9-6647-B55D-D3F04F7FAF8B}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,6 +91,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Prerequisites
 </t>
@@ -98,15 +102,17 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The master program data engineering and analytics is designed for students with a bachelor's degree in Informatics or Mathematics with a minor Informatics (or similar), which aim to specialize in Data Engineering and Analytics. Applicants need to have elementary skills in Informatics, especially foundations of Informatics and programming of algorithms and databases. In the application process, the applicant's transcript of record is matched against a predetermined catalogue. In case there are important core lectures missing, these can be added as mandatory courses to the applicant's curriculum. In case more than 30 ECTS are missing, admission is not possible. Also, proficiency in English is required. Furthermore, students that did not provide proof of proficiency in German before enrollment will receive an obligation to complete at least one module that provides integrative knowledge of the German language. Voluntarily completed extracurricular courses, for example German courses at the TUM language center will be recognized.
 </t>
@@ -116,23 +122,25 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">NADA....
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{52BB31D4-776C-BF4B-91A2-FE3A693CB92F}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,6 +148,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Subject requirements
 </t>
@@ -149,6 +158,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>In order to commence the Mathematics in Data Science Master’s program at TUM, a recognized university degree in Mathematics, Informatics (with a minor in Mathematics) or a comparable study program is required. Those who are interested should refer to the program-specific Examination Regulations under "Grundlagen aus dem Bachelorstudiengang Mathematik der TUM” [“Foundations for the TUM Bachelor's program in Mathematics]</t>
         </r>
@@ -158,6 +168,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t> </t>
         </r>
@@ -166,6 +177,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">and to the Attachment 3, to find out which competencies must be proven in detail.
 </t>
@@ -175,16 +187,18 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Subject requirements
 </t>
@@ -194,6 +208,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>In order to commence the Mathematics in Data Science Master’s program at TUM, a recognized university degree in Mathematics, Informatics (with a minor in Mathematics) or a comparable study program is required. Those who are interested should refer to the program-specific Examination Regulations under "Grundlagen aus dem Bachelorstudiengang Mathematik der TUM” [“Foundations for the TUM Bachelor's program in Mathematics]</t>
         </r>
@@ -203,6 +218,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t> </t>
         </r>
@@ -211,6 +227,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">and to the Attachment 3, to find out which competencies must be proven in detail.
 </t>
@@ -220,16 +237,18 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Formal requirements
 </t>
@@ -240,6 +259,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Students from abroad: GRE Test or Gate Test
 </t>
@@ -249,6 +269,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Applicants who acquired their university degree in Bangladesh, China, India, Iran, or Pakistan must provide proof of a sufficient pass mark in the admission test GRE (Graduate Record Examination) - Quantitative reasoning: 154, Analytical writing: 3,0. Institutional Code: 7806 Department 5199.</t>
         </r>
@@ -258,6 +279,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t> </t>
         </r>
@@ -266,6 +288,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Alternatively, students can apply using the associated score card for the Indian GATE-Test (Mathematics).
 </t>
@@ -276,6 +299,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Information
 </t>
@@ -285,6 +309,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">You can find out if special requirements apply to your country here. For questions please contact: studium (at) tum.de
 </t>
@@ -295,6 +320,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Language Requirements
 </t>
@@ -305,6 +331,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Proof of English language skills
 </t>
@@ -314,6 +341,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">For the "Mathematics in Data Science" Master’s program at TUM you must provide evidence of adequate knowledge of the English language. Students whose official language of instruction during their undergraduate studies was not English must demonstrate proficiency in the form of an acknowledged language test such as
 </t>
@@ -323,6 +351,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Test of English as a Foreign Language (TOEFL) (at least 88 points on the TOEFL iBT),
 </t>
@@ -332,6 +361,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">International English Language Testing System (IELTS) (at least 6.5 points),
 </t>
@@ -341,6 +371,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">or Cambridge Main Suite of English Examinations.
 </t>
@@ -350,16 +381,18 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">NADA
 </t>
@@ -369,28 +402,31 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{AD5F001E-903A-AB46-84C7-15BF406FC448}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Only candidates with excellent academic records and references have good chances to be accepted. </t>
         </r>
@@ -400,6 +436,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Also, are not eligible candidates who already hold a Master’s degree, or equivalent, in the field (or similar field) of the program for which they would apply.
 </t>
@@ -410,6 +447,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
 </t>
@@ -421,6 +459,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>student.services@epfl.ch</t>
         </r>
@@ -430,16 +469,18 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">+41 (0)21 693 43 45
 </t>
@@ -479,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{7C02704A-D913-5347-AC87-E8E7DDA525FB}">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -772,13 +813,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{0E02BB69-605E-1C4C-8B15-CCC6C5E1127E}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Entry requirements
 </t>
@@ -788,6 +830,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">A 2:1 (hons) bachelor degree with a substantial numerate component. This may include </t>
         </r>
@@ -797,6 +840,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">degrees in mathematics, statistics, economics, engineering, or a physical science subject.
 </t>
@@ -806,6 +850,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">We accept a range of international equivalent qualifications.
 </t>
@@ -816,6 +861,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ENTRE 6,5 - 7
 </t>
@@ -825,15 +871,17 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">English language requirements
 </t>
@@ -843,6 +891,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">IELTS 6.5 overall, with no less than 6.0 in all components. For other English qualifications, read English language equivalent qualifications.How to apply
 </t>
@@ -852,15 +901,17 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Application deadlines
 </t>
@@ -871,6 +922,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>31 July 2019</t>
         </r>
@@ -879,6 +931,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> - International applicants
 </t>
@@ -889,6 +942,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>31 August 2019</t>
         </r>
@@ -897,6 +951,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> - Home/EU applicants
 </t>
@@ -916,6 +971,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">School of Mathematics Admissions Team
 </t>
@@ -925,6 +981,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Email: maths-msc@leeds.ac.uk
 </t>
@@ -934,12 +991,13 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Telephone: +44 (0)113 343 0945</t>
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{3353F291-CC43-3743-A5B8-6D76D9116074}">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -963,7 +1021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{7A884086-9AB7-7848-84A5-EE071C68DE3D}">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{46355CFF-E72A-BB4A-AE1B-20E61556C3DC}">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1219,7 +1277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{DA610A62-C8FC-6648-AAB6-746009910A1A}">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1227,6 +1285,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">TECNICO: 
 </t>
@@ -1237,6 +1296,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Bachelor of Science</t>
         </r>
@@ -1245,6 +1305,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t> (or equivalent)</t>
         </r>
@@ -1254,6 +1315,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t> in Statistics or Informatics</t>
         </r>
@@ -1262,6 +1324,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> or related disciplines (at least 180 ECTS or equivalent).
 </t>
@@ -1272,6 +1335,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Excellent knowledge in Informatics and Statistics.</t>
         </r>
@@ -1280,6 +1344,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Applicants need to provide evidence of knowledge in the following fields:
 </t>
@@ -1290,6 +1355,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Statistical Science and Data-Based Modelling: </t>
         </r>
@@ -1298,6 +1364,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>This includes, in particular, statistics and topics such as data mining, probability theory, and machine learning (at least 30 ECTS or equivalent). </t>
         </r>
@@ -1307,6 +1374,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>(Average Grade 2)</t>
         </r>
@@ -1316,25 +1384,28 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Computer Science and Computational Methods: </t>
         </r>
@@ -1343,6 +1414,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>This includes, in particular, data structures and algorithms, database systems, programming principles and practice, software engineering (at least 30 ECTS or equivalent). </t>
         </r>
@@ -1352,6 +1424,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>(Average Grade 3)</t>
         </r>
@@ -1360,16 +1433,18 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Overall Average Grade</t>
         </r>
@@ -1378,6 +1453,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t> must be </t>
         </r>
@@ -1387,6 +1463,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>better than 1.5</t>
         </r>
@@ -1395,6 +1472,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>. The </t>
         </r>
@@ -1404,6 +1482,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>overall average grade</t>
         </r>
@@ -1412,6 +1491,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t> is composed of (1) </t>
         </r>
@@ -1421,6 +1501,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Average Grade 1</t>
         </r>
@@ -1429,6 +1510,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>: the </t>
         </r>
@@ -1438,6 +1520,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>average grade from the best performance</t>
         </r>
@@ -1446,6 +1529,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t> (equivalent to </t>
         </r>
@@ -1455,6 +1539,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>150 ECTS</t>
         </r>
@@ -1463,6 +1548,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>), (2)</t>
         </r>
@@ -1472,6 +1558,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t> Average Grade 2</t>
         </r>
@@ -1480,6 +1567,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>, and (3) </t>
         </r>
@@ -1489,6 +1577,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Average Grade 3</t>
         </r>
@@ -1497,6 +1586,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">.
 </t>
@@ -1506,16 +1596,18 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ESTAMOS FUERA
 </t>
@@ -1526,16 +1618,18 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">IDIOMA (NO APLICA):
 </t>
@@ -1545,16 +1639,18 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Proficiency in English: </t>
         </r>
@@ -1563,13 +1659,14 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">at least B2 CEFR (or equivalent); or English university entrance qualification; or first degree in English.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{D740A615-C814-F04E-953E-63CFB260894F}">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1577,6 +1674,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">TECNICO:
 </t>
@@ -1587,16 +1685,18 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Admission Requirements:</t>
         </r>
@@ -1605,15 +1705,17 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Undergraduate degree with at least 48 ECTS in data science-related courses
 </t>
@@ -1623,6 +1725,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">BAD
 </t>
@@ -1632,16 +1735,18 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Selection Criteria:</t>
         </r>
@@ -1650,15 +1755,17 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Overall grade of undergraduate degree BAD 
 </t>
@@ -1668,6 +1775,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Previous experience in data science BAD (IGOR  QUIZA?)
 </t>
@@ -1677,6 +1785,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Semester abroad GOOD
 </t>
@@ -1686,16 +1795,18 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ESTAMOS FUERA
 </t>
@@ -1705,23 +1816,25 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">IDIOMA (NO APLICA)
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{42383ACF-8725-BE4F-BDFF-F37A11B34361}">
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1729,6 +1842,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">TECNICO
 </t>
@@ -1738,15 +1852,17 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The joint admission criteria to the Computer, Communication and Information Sciences programme is a high quality Bachelor’s degree in computer science, software engineering, communications engineering, or electrical engineering. Excellent candidates with degrees in other fields such as information systems, engineering, natural sciences, mathematics or physics will be considered if they have sufficient studies and proven skills and knowledge according to the requirements.
 </t>
@@ -1756,15 +1872,17 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>The </t>
         </r>
@@ -1774,6 +1892,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>required background</t>
         </r>
@@ -1782,6 +1901,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t> for the </t>
         </r>
@@ -1791,6 +1911,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Machine Learning, Data Science and Artificial Intelligence </t>
         </r>
@@ -1799,6 +1920,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">major includes sufficient skills in:
 </t>
@@ -1808,6 +1930,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">mathematics (particularly important are linear algebra, calculus, probability theory, statistics, and discrete mathematics)
 </t>
@@ -1817,6 +1940,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">computer science (in particular good programming skills, data structures and algorithms. Also other courses, such as: data bases, theory of computing, computer networks, software engineering)
 </t>
@@ -1843,13 +1967,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{53F88C5D-A49F-0C4D-84EF-9CB93D358A61}">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The programme is designed to provide graduates of Computer Science and closely related areas with in-depth knowledge and skills in the emerging growth area of Data Analytics. It includes topics such as large-scale data analytics, advanced machine learning and data-mining, information retrieval, natural language processing and web mining. It also includes foundational modules in topics such as statistics, probability and programming for data analytics. Students on the programme further deepen their knowledge of Data Analytics by working on a project either in conjunction with a research group or with an industry partner.
 </t>
@@ -1877,7 +2002,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{EA9B7ED9-A147-F54F-AB88-2D67358E5094}">
+    <comment ref="E16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1885,6 +2010,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">TECNICO
 </t>
@@ -1894,15 +2020,17 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Candidates must have:
 </t>
@@ -1912,6 +2040,7 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>obtained either a honours level 8 primary degree (minium 2H1 honours or equivalent) in computer science or mathematical sciences </t>
         </r>
@@ -1922,6 +2051,7 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>or</t>
         </r>
@@ -1930,15 +2060,17 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF7030A0"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">an honours level 8 primary degree (minium 2H1 honours or equivalent) with a strong numerate content (e.g. engineering, finance, physics, biosciences or economics). In such cases the programme team must be satisfied that the numerate content is sufficient for entry to the programme and that applicants have an aggregate grade of a 2H1 in appropriate modules. </t>
         </r>
@@ -1948,6 +2080,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">UN 7 Y PASARLES EL PROGRAMA PARA MIRAR EL QUANTITATIVE
 </t>
@@ -1957,6 +2090,7 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Applicants who do not meet the above standard entry requirements will also be considered if they have an undergraduate degree (at Level 8) and a minimum of 5 years verifiable relevant industrial experience. O </t>
         </r>
@@ -1966,6 +2100,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">UN 7 SIN QUANTITATIVE Y 5 AÑOS DE EXP.
 </t>
@@ -2007,6 +2142,7 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">IDIOMAS (SOLO AITOR)
 </t>
@@ -2017,6 +2153,7 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>IELTS 6.5 AGREGADO; 6.0 &lt; INDIVIDUAL</t>
         </r>
@@ -2025,6 +2162,7 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2044,6 +2182,7 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Prof. Barry O'Sullivan
 </t>
@@ -2054,6 +2193,7 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>b.osullivan@cs.ucc.ie</t>
         </r>
@@ -2062,6 +2202,7 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2072,6 +2213,7 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>021 420 5951</t>
         </r>
@@ -2080,13 +2222,14 @@
             <sz val="14"/>
             <color rgb="FF7030A0"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{4AD4AB51-6D9A-7D46-83D1-3162123328CA}">
+    <comment ref="E17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2094,6 +2237,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">TECNICO
 </t>
@@ -2103,15 +2247,17 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">We require a First or strong Upper Second class honours degree, or the overseas equivalent, in Computer Science, or in a joint degree with at least 50% Computer Science content. </t>
         </r>
@@ -2121,6 +2267,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Applicants with extensive Computer Science industrial experience and a good honours degree in Computer Science, or its overseas equivalent, may also be considered for admission.
 </t>
@@ -2131,16 +2278,18 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">IGOR QUIZA
 </t>
@@ -2150,15 +2299,17 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">We require that all applicants have a strong background in Computer Science reflected, for example, in solid programming and software development skills.
 </t>
@@ -2168,6 +2319,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2178,6 +2330,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>pgt-compsci@manchester.ac.uk</t>
         </r>
@@ -2186,13 +2339,14 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{9B83FB4E-3F9D-C34F-9616-CD6F8FC7C2E7}">
+    <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2200,6 +2354,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">TECNICO
 </t>
@@ -2209,15 +2364,17 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Entry requirements
 </t>
@@ -2227,6 +2384,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">An upper second class degree is normally required, usually in electronic engineering, computer science, mathematics or a related discipline. Students with a good lower second class degree may be considered on an individual basis. </t>
         </r>
@@ -2236,6 +2394,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Applicants with unrelated degrees will be considered if there is evidence of equivalent industrial experience.
 </t>
@@ -2245,6 +2404,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">For international students we require English language qualifications IELTS 6.5 OR TOEFL 92 (internet based).
 </t>
@@ -2254,16 +2414,18 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">NO ME CUADRA MUCHO, SI EL TIO ESE DE ADE ENTRÓ SIN EXPERIENCIA Y ENCIMA DE ADE.... SEGURAMENTE TENIA BUENAS NOTAS SOLAMENTE
 </t>
@@ -2273,6 +2435,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>eecs-msc-enquiries@qmul.ac.uk</t>
         </r>
@@ -2282,13 +2445,14 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{FABC681E-2858-4140-A11C-DCA0641BEDEC}">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2296,6 +2460,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MIRAR LA WEB DIRECTAMENTE. EL PROGRAMA PRE-MASTER PARA NUESTROS BACHELORS SOLO LO OFRECEN A HOLANDESES.
 </t>
@@ -2306,16 +2471,18 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">1 de Junio es deadline para empezar en septiembre
 </t>
@@ -2326,6 +2493,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2335,6 +2503,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t> </t>
@@ -2345,6 +2514,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>admissions-ai-master@uu.nl</t>
@@ -2354,6 +2524,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>. --&gt; es el corrdinador del programa, para elegibility</t>
@@ -2363,6 +2534,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> questions</t>
@@ -2373,26 +2545,29 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Mail:</t>
         </r>
@@ -2401,6 +2576,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t> </t>
         </r>
@@ -2410,6 +2586,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>study@uu.nl</t>
         </r>
@@ -2419,6 +2596,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Tel: </t>
         </r>
@@ -2427,6 +2605,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>+ 31 30 253 2670  (Monday - Friday: 9 am – 17 pm)</t>
         </r>
@@ -2436,6 +2615,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>WhatsApp: </t>
         </r>
@@ -2444,6 +2624,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>+ 31 64 16 34378 </t>
         </r>
@@ -2454,6 +2635,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>- for the use of WhatsApp only! </t>
         </r>
@@ -2462,6 +2644,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>(Monday to Friday: 9 am - 5 pm)</t>
         </r>
@@ -2472,6 +2655,7 @@
             <sz val="14"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t> - On a smartphone? </t>
         </r>
@@ -2483,6 +2667,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Start chatting immediately!</t>
         </r>
@@ -2493,7 +2678,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
   <si>
     <t>Title</t>
   </si>
@@ -2745,16 +2930,55 @@
   </si>
   <si>
     <t>Requisites A</t>
+  </si>
+  <si>
+    <t>Vrije Universiteit Amsterdam</t>
+  </si>
+  <si>
+    <t>University of Amsterdam</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Trinity College</t>
+  </si>
+  <si>
+    <t>UPC barcelona AI</t>
+  </si>
+  <si>
+    <t>UPC barcelona DS</t>
+  </si>
+  <si>
+    <t>UCL CV</t>
+  </si>
+  <si>
+    <t>UPC barcelona VR, CV</t>
+  </si>
+  <si>
+    <t>Swede applications</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>https://en.itu.dk/programmes/msc-programmes/~/link.aspx?_id=CC3FDFF0F3F143E1B594AB80AE239278&amp;_z=z#admission-requirements-sdt-design</t>
+  </si>
+  <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>https://mila.quebec/en/cours/training-programs/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2836,33 +3060,25 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <i/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2870,6 +3086,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2878,11 +3095,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2890,23 +3103,20 @@
       <sz val="14"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="14"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2914,6 +3124,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3059,23 +3270,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3111,23 +3305,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3303,27 +3480,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
@@ -3361,7 +3538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3397,7 +3574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3430,7 +3607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3463,7 +3640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3496,7 +3673,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3529,7 +3706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3562,7 +3739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3595,7 +3772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3628,7 +3805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3661,7 +3838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3694,7 +3871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3727,7 +3904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3760,7 +3937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3793,7 +3970,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3824,7 +4001,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3860,7 +4037,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3896,7 +4073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3932,7 +4109,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3968,8 +4145,69 @@
         <v>74</v>
       </c>
     </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L19" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:L19">
     <sortState ref="A2:K17">
       <sortCondition ref="A1:A9"/>
     </sortState>
@@ -3985,26 +4223,28 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="L6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="L10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="L16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L17" r:id="rId16" location="course-profile" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L6" r:id="rId1"/>
+    <hyperlink ref="L7" r:id="rId2"/>
+    <hyperlink ref="L9" r:id="rId3"/>
+    <hyperlink ref="L3" r:id="rId4"/>
+    <hyperlink ref="L4" r:id="rId5"/>
+    <hyperlink ref="L2" r:id="rId6"/>
+    <hyperlink ref="L5" r:id="rId7"/>
+    <hyperlink ref="L8" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16" location="course-profile"/>
+    <hyperlink ref="L18" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId18"/>
+    <hyperlink ref="C30" r:id="rId19" location="admission-requirements-sdt-design"/>
+    <hyperlink ref="C31" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId19"/>
+  <legacyDrawing r:id="rId21"/>
 </worksheet>
 </file>